--- a/Completed Projects/Burhani Mehal/016 Bill for Plumbing and swimming pool work for burhani mahal.xlsx
+++ b/Completed Projects/Burhani Mehal/016 Bill for Plumbing and swimming pool work for burhani mahal.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0591D2-2042-423F-96E5-85236F958366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063397D4-4412-43E6-9C3B-238A9DC3BDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,10 +195,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
@@ -370,7 +369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -398,7 +397,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -416,9 +414,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -429,40 +424,40 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -485,16 +480,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>118470</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>204195</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>12092</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>59717</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -523,7 +518,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9291045" y="8820151"/>
+          <a:off x="204195" y="23507701"/>
           <a:ext cx="719730" cy="574066"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -535,16 +530,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>707432</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1145582</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -561,8 +556,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8803682" y="1371600"/>
-          <a:ext cx="4855168" cy="552450"/>
+          <a:off x="1412282" y="304800"/>
+          <a:ext cx="4855168" cy="657225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -638,16 +633,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>819149</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1171574</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -671,8 +666,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7791450" y="1123949"/>
-          <a:ext cx="1123949" cy="914401"/>
+          <a:off x="314325" y="19051"/>
+          <a:ext cx="1123949" cy="933450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -742,13 +737,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>492900</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>159526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>136004</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1078,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:J60"/>
+  <dimension ref="A3:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1105,75 +1100,75 @@
     <row r="5" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="H10" s="30" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="H10" s="23" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+    <row r="11" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="G11" s="31" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="G11" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="31"/>
-    </row>
-    <row r="12" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="H11" s="26"/>
+    </row>
+    <row r="12" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="G12" s="32" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="G12" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="32"/>
-    </row>
-    <row r="13" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:8" customFormat="1" ht="1.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
     </row>
     <row r="16" spans="1:8" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
@@ -1186,29 +1181,29 @@
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
     </row>
     <row r="19" spans="1:8" ht="5.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
     </row>
     <row r="21" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
@@ -1221,24 +1216,24 @@
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
     </row>
     <row r="23" spans="1:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
     </row>
     <row r="24" spans="1:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
@@ -1263,16 +1258,16 @@
       <c r="D25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1280,7 +1275,7 @@
       <c r="A26" s="2">
         <v>1</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1308,7 +1303,7 @@
       <c r="A27" s="2">
         <v>2</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1336,7 +1331,7 @@
       <c r="A28" s="2">
         <v>3</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1364,7 +1359,7 @@
       <c r="A29" s="2">
         <v>4</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1392,7 +1387,7 @@
       <c r="A30" s="2">
         <v>5</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1418,7 +1413,7 @@
       <c r="A31" s="2">
         <v>6</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="13" t="s">
         <v>55</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -1446,7 +1441,7 @@
       <c r="A32" s="2">
         <v>7</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -1474,7 +1469,7 @@
       <c r="A33" s="2">
         <v>8</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -1502,7 +1497,7 @@
       <c r="A34" s="2">
         <v>9</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="13" t="s">
         <v>35</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -1528,7 +1523,7 @@
       <c r="A35" s="2">
         <v>10</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="13" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -1556,7 +1551,7 @@
       <c r="A36" s="2">
         <v>11</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -1584,7 +1579,7 @@
       <c r="A37" s="2">
         <v>12</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -1612,7 +1607,7 @@
       <c r="A38" s="2">
         <v>13</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="13" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -1636,11 +1631,11 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="10" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>14</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="13" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -1668,7 +1663,7 @@
       <c r="A40" s="2">
         <v>15</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -1696,7 +1691,7 @@
       <c r="A41" s="2">
         <v>16</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -1724,7 +1719,7 @@
       <c r="A42" s="2">
         <v>17</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="13" t="s">
         <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -1752,7 +1747,7 @@
       <c r="A43" s="2">
         <v>18</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -1780,7 +1775,7 @@
       <c r="A44" s="2">
         <v>19</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -1808,7 +1803,7 @@
       <c r="A45" s="2">
         <v>20</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -1832,11 +1827,11 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>21</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -1864,7 +1859,7 @@
       <c r="A47" s="2">
         <v>22</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -1892,7 +1887,7 @@
       <c r="A48" s="2">
         <v>23</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -1920,7 +1915,7 @@
       <c r="A49" s="2">
         <v>24</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="13" t="s">
         <v>43</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -1948,7 +1943,7 @@
       <c r="A50" s="2">
         <v>25</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -1972,11 +1967,11 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="10" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>26</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -2004,7 +1999,7 @@
       <c r="A52" s="2">
         <v>27</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -2032,7 +2027,7 @@
       <c r="A53" s="2">
         <v>28</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -2060,7 +2055,7 @@
       <c r="A54" s="2">
         <v>29</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="13" t="s">
         <v>46</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -2083,87 +2078,76 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="22">
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="20">
         <f>SUM(G26:G54)</f>
         <v>443700</v>
       </c>
-      <c r="H55" s="22">
+      <c r="H55" s="20">
         <f>SUM(H26:H54)</f>
         <v>498600</v>
       </c>
-      <c r="J55" s="21"/>
+      <c r="J55" s="19"/>
     </row>
     <row r="56" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="16">
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="15">
         <f>H55*15%</f>
         <v>74790</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="20">
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="18">
         <f>H55+G55+H56</f>
         <v>1017090</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="J59" s="11"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="23" t="s">
+      <c r="A59" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="23"/>
+      <c r="B59" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A59:B59"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A55:F55"/>
     <mergeCell ref="A20:H20"/>
